--- a/ドキュメント/プロジェクト型演習_成果物フォーマット.xlsx
+++ b/ドキュメント/プロジェクト型演習_成果物フォーマット.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER123\Desktop\プロジェクト演習ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\TMS60\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4D8A06-920A-418D-BB96-4E77BF6795D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF49AED8-81D6-433E-959F-8B4D188663CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,28 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -258,6 +280,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1120,80 +1143,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,31 +1185,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1261,17 +1281,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1279,17 +1296,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,6 +1329,141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>317151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115667</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>675069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD90085-F60D-0122-112C-989C5B627653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="399840" y="1848478"/>
+          <a:ext cx="748923" cy="357918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Noto Sans JP" panose="020B0200000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Noto Sans JP" panose="020B0200000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2679,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:J5"/>
     </sheetView>
   </sheetViews>
@@ -2691,19 +2849,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2715,168 +2873,168 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="75"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
-      <c r="D6" s="52"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="52"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="52"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="40"/>
-      <c r="D9" s="52"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
-      <c r="J9" s="53"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="52"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
-      <c r="J10" s="53"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="60" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="52"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="52"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -3867,17 +4025,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -3886,14 +4041,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -3920,16 +4078,16 @@
       <c r="A1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -3941,40 +4099,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="75"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -5323,7 +5481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -5338,16 +5496,16 @@
       <c r="A1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -5359,40 +5517,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="75"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6735,8 +6893,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6750,16 +6908,16 @@
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -6771,57 +6929,57 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="75"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="75"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="39"/>
@@ -6832,22 +6990,24 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1">
+      <c r="A7" s="86" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1">
+      <c r="A8" s="70"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -6856,10 +7016,10 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="90"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" customHeight="1">
+      <c r="A9" s="70"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -6868,10 +7028,10 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="J9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" customHeight="1">
+      <c r="A10" s="70"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -6880,10 +7040,10 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="90"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="J10" s="89"/>
+    </row>
+    <row r="11" spans="1:10" ht="60" customHeight="1">
+      <c r="A11" s="70"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -6892,10 +7052,10 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="90"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" customHeight="1">
+      <c r="A12" s="70"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -6904,10 +7064,10 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="90"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1">
+      <c r="A13" s="70"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -6916,10 +7076,10 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="90"/>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="83" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="39"/>
@@ -6930,15 +7090,15 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="53"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="83" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="52"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -6949,7 +7109,7 @@
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="83" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="39"/>
@@ -6966,11 +7126,11 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="90" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="53"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
       <c r="A17" s="84"/>
@@ -6980,9 +7140,9 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="52"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="53"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
       <c r="A18" s="84"/>
@@ -6992,9 +7152,9 @@
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="52"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="39"/>
-      <c r="J18" s="53"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
       <c r="A19" s="84"/>
@@ -7004,9 +7164,9 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="52"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
       <c r="A20" s="84"/>
@@ -7016,9 +7176,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="52"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="53"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
       <c r="A21" s="84"/>
@@ -7028,9 +7188,9 @@
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="52"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="53"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
       <c r="A22" s="84"/>
@@ -7040,21 +7200,21 @@
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="52"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="53"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="79"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8035,11 +8195,22 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
@@ -8049,27 +8220,17 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8089,133 +8250,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="77" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="77" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="77" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="77" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="77" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="51"/>
+      <c r="T1" s="81"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="89"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="80"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="80"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="90"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="101"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="97"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="49" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="81"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="83" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="39"/>
@@ -8223,7 +8384,7 @@
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="40"/>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="62" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="39"/>
@@ -8238,10 +8399,10 @@
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
-      <c r="T6" s="53"/>
+      <c r="T6" s="63"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="83" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="39"/>
@@ -8249,7 +8410,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="62" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="39"/>
@@ -8264,7 +8425,7 @@
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
-      <c r="T7" s="53"/>
+      <c r="T7" s="63"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -8463,7 +8624,7 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="83" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="40"/>
@@ -8471,25 +8632,25 @@
         <v>39</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="90" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="90" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="91" t="s">
+      <c r="J15" s="90" t="s">
         <v>48</v>
       </c>
       <c r="K15" s="40"/>
-      <c r="L15" s="91" t="s">
+      <c r="L15" s="90" t="s">
         <v>49</v>
       </c>
       <c r="M15" s="39"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="91" t="s">
+      <c r="O15" s="90" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="39"/>
@@ -8505,33 +8666,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="93">
+      <c r="A16" s="98">
         <v>1</v>
       </c>
       <c r="B16" s="40"/>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="99" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="99" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="40"/>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="93" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="93" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="40"/>
-      <c r="L16" s="97" t="s">
+      <c r="L16" s="95" t="s">
         <v>58</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="40"/>
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="95" t="s">
         <v>59</v>
       </c>
       <c r="P16" s="39"/>
@@ -8547,33 +8708,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="93">
+      <c r="A17" s="98">
         <v>2</v>
       </c>
       <c r="B17" s="40"/>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="99" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="40"/>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="99" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="93" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="99" t="s">
+      <c r="J17" s="93" t="s">
         <v>63</v>
       </c>
       <c r="K17" s="40"/>
-      <c r="L17" s="97" t="s">
+      <c r="L17" s="95" t="s">
         <v>64</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="40"/>
-      <c r="O17" s="97" t="s">
+      <c r="O17" s="95" t="s">
         <v>65</v>
       </c>
       <c r="P17" s="39"/>
@@ -8589,21 +8750,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="93"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="40"/>
-      <c r="C18" s="94"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="94"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="99"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="99"/>
+      <c r="J18" s="93"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="97"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="39"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="97"/>
+      <c r="O18" s="95"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="40"/>
       <c r="R18" s="33"/>
@@ -8617,21 +8778,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="93"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="94"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="94"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="99"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="99"/>
+      <c r="J19" s="93"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="97"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="39"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="97"/>
+      <c r="O19" s="95"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="40"/>
       <c r="R19" s="33"/>
@@ -8645,21 +8806,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="93"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="94"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="94"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="99"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="99"/>
+      <c r="J20" s="93"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="97"/>
+      <c r="L20" s="95"/>
       <c r="M20" s="39"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="97"/>
+      <c r="O20" s="95"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="40"/>
       <c r="R20" s="33"/>
@@ -8673,21 +8834,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="93"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="94"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="94"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="99"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="39"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="99"/>
+      <c r="J21" s="93"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="97"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="39"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="97"/>
+      <c r="O21" s="95"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="33"/>
@@ -8701,21 +8862,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="93"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="40"/>
-      <c r="C22" s="94"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="94"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="99"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="99"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="97"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="39"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="97"/>
+      <c r="O22" s="95"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="33"/>
@@ -8729,21 +8890,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="93"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="40"/>
-      <c r="C23" s="94"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="94"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="99"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="99"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="97"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="39"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="97"/>
+      <c r="O23" s="95"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="33"/>
@@ -8757,21 +8918,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="93"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="40"/>
-      <c r="C24" s="94"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="94"/>
+      <c r="E24" s="99"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="99"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="39"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="99"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="40"/>
-      <c r="L24" s="97"/>
+      <c r="L24" s="95"/>
       <c r="M24" s="39"/>
       <c r="N24" s="40"/>
-      <c r="O24" s="97"/>
+      <c r="O24" s="95"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="33"/>
@@ -8785,21 +8946,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="93"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="40"/>
-      <c r="C25" s="94"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="94"/>
+      <c r="E25" s="99"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="99"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="39"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="99"/>
+      <c r="J25" s="93"/>
       <c r="K25" s="40"/>
-      <c r="L25" s="97"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="39"/>
       <c r="N25" s="40"/>
-      <c r="O25" s="97"/>
+      <c r="O25" s="95"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="40"/>
       <c r="R25" s="33"/>
@@ -8813,21 +8974,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="93"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="94"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="94"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="39"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="99"/>
+      <c r="J26" s="93"/>
       <c r="K26" s="40"/>
-      <c r="L26" s="97"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="39"/>
       <c r="N26" s="40"/>
-      <c r="O26" s="97"/>
+      <c r="O26" s="95"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="33"/>
@@ -8841,21 +9002,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="93"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="94"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="94"/>
+      <c r="E27" s="99"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="99"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="39"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="99"/>
+      <c r="J27" s="93"/>
       <c r="K27" s="40"/>
-      <c r="L27" s="97"/>
+      <c r="L27" s="95"/>
       <c r="M27" s="39"/>
       <c r="N27" s="40"/>
-      <c r="O27" s="97"/>
+      <c r="O27" s="95"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="33"/>
@@ -8869,21 +9030,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="93"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="94"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="94"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="99"/>
+      <c r="G28" s="93"/>
       <c r="H28" s="39"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="99"/>
+      <c r="J28" s="93"/>
       <c r="K28" s="40"/>
-      <c r="L28" s="97"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="39"/>
       <c r="N28" s="40"/>
-      <c r="O28" s="97"/>
+      <c r="O28" s="95"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="33"/>
@@ -8897,21 +9058,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="93"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="40"/>
-      <c r="C29" s="94"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="94"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="99"/>
+      <c r="G29" s="93"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="99"/>
+      <c r="J29" s="93"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="97"/>
+      <c r="L29" s="95"/>
       <c r="M29" s="39"/>
       <c r="N29" s="40"/>
-      <c r="O29" s="97"/>
+      <c r="O29" s="95"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="33"/>
@@ -8925,21 +9086,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="93"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="40"/>
-      <c r="C30" s="94"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="94"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="99"/>
+      <c r="G30" s="93"/>
       <c r="H30" s="39"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="99"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="40"/>
-      <c r="L30" s="97"/>
+      <c r="L30" s="95"/>
       <c r="M30" s="39"/>
       <c r="N30" s="40"/>
-      <c r="O30" s="97"/>
+      <c r="O30" s="95"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="33"/>
@@ -8953,23 +9114,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="95"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="55"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="66"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -9967,62 +10128,62 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -10047,62 +10208,62 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
